--- a/src/WebMarket/WebMarket/App_Data/VoltageRelay.xlsx
+++ b/src/WebMarket/WebMarket/App_Data/VoltageRelay.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="VoltageRelay" sheetId="1" r:id="rId1"/>
+    <sheet name="Metadata" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="77">
   <si>
     <t>Name</t>
   </si>
@@ -236,6 +237,15 @@
   </si>
   <si>
     <t>VP-10ASH.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01.08.2012</t>
+  </si>
+  <si>
+    <t>07.24.2013</t>
+  </si>
+  <si>
+    <t>Updated prices</t>
   </si>
 </sst>
 </file>
@@ -586,12 +596,18 @@
   <dimension ref="A1:AB18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="35.28515625" customWidth="1"/>
     <col min="5" max="5" width="32" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="15" max="15" width="20.140625" customWidth="1"/>
+    <col min="16" max="16" width="8.7109375" customWidth="1"/>
+    <col min="17" max="17" width="42" customWidth="1"/>
+    <col min="25" max="25" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
@@ -685,7 +701,7 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -746,7 +762,7 @@
         <v>33</v>
       </c>
       <c r="B3">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -807,7 +823,7 @@
         <v>34</v>
       </c>
       <c r="B4">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -868,7 +884,7 @@
         <v>35</v>
       </c>
       <c r="B5">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -929,7 +945,7 @@
         <v>36</v>
       </c>
       <c r="B6">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -990,7 +1006,7 @@
         <v>39</v>
       </c>
       <c r="B7">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -1051,7 +1067,7 @@
         <v>40</v>
       </c>
       <c r="B8">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -1112,7 +1128,7 @@
         <v>42</v>
       </c>
       <c r="B9">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -1176,7 +1192,7 @@
         <v>44</v>
       </c>
       <c r="B10">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -1240,7 +1256,7 @@
         <v>46</v>
       </c>
       <c r="B11">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -1304,7 +1320,7 @@
         <v>48</v>
       </c>
       <c r="B12">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -1368,7 +1384,7 @@
         <v>50</v>
       </c>
       <c r="B13">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -1432,7 +1448,7 @@
         <v>52</v>
       </c>
       <c r="B14">
-        <v>443</v>
+        <v>421</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -1496,7 +1512,7 @@
         <v>54</v>
       </c>
       <c r="B15">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -1637,4 +1653,38 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/WebMarket/WebMarket/App_Data/VoltageRelay.xlsx
+++ b/src/WebMarket/WebMarket/App_Data/VoltageRelay.xlsx
@@ -26,9 +26,6 @@
     <t>Discount</t>
   </si>
   <si>
-    <t>IsAvailable</t>
-  </si>
-  <si>
     <t>Photo</t>
   </si>
   <si>
@@ -246,6 +243,9 @@
   </si>
   <si>
     <t>Updated prices</t>
+  </si>
+  <si>
+    <t>Availability</t>
   </si>
 </sst>
 </file>
@@ -596,7 +596,7 @@
   <dimension ref="A1:AB18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,96 +621,96 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
+        <v>61</v>
+      </c>
+      <c r="W1" t="s">
         <v>18</v>
       </c>
-      <c r="V1" t="s">
-        <v>62</v>
-      </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>19</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>23</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>95</v>
       </c>
-      <c r="D2" t="b">
-        <v>1</v>
+      <c r="D2">
+        <v>0</v>
       </c>
       <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
         <v>26</v>
-      </c>
-      <c r="F2" t="s">
-        <v>27</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -722,36 +722,36 @@
         <v>5</v>
       </c>
       <c r="O2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="V2" s="2"/>
       <c r="X2">
         <v>6</v>
       </c>
       <c r="Y2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Z2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA2" t="s">
         <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
       </c>
       <c r="AB2">
         <v>1.3</v>
@@ -759,19 +759,19 @@
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>103</v>
       </c>
-      <c r="D3" t="b">
-        <v>1</v>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
         <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -783,36 +783,36 @@
         <v>5</v>
       </c>
       <c r="O3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="V3" s="2"/>
       <c r="X3">
         <v>10</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Z3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA3" t="s">
         <v>31</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>32</v>
       </c>
       <c r="AB3">
         <v>2.2000000000000002</v>
@@ -820,19 +820,19 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <v>118</v>
       </c>
-      <c r="D4" t="b">
-        <v>1</v>
+      <c r="D4">
+        <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -844,36 +844,36 @@
         <v>5</v>
       </c>
       <c r="O4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="U4" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="V4" s="2"/>
       <c r="X4">
         <v>10</v>
       </c>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Z4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA4" t="s">
         <v>31</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>32</v>
       </c>
       <c r="AB4">
         <v>2.2000000000000002</v>
@@ -881,19 +881,19 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5">
         <v>190</v>
       </c>
-      <c r="D5" t="b">
-        <v>1</v>
+      <c r="D5">
+        <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -905,36 +905,36 @@
         <v>5</v>
       </c>
       <c r="O5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S5" t="s">
+        <v>27</v>
+      </c>
+      <c r="T5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T5" s="2" t="s">
+      <c r="U5" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="V5" s="2"/>
       <c r="X5">
         <v>10</v>
       </c>
       <c r="Y5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Z5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA5" t="s">
         <v>31</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>32</v>
       </c>
       <c r="AB5">
         <v>2.2000000000000002</v>
@@ -942,19 +942,19 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6">
         <v>117</v>
       </c>
-      <c r="D6" t="b">
-        <v>1</v>
+      <c r="D6">
+        <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -966,36 +966,36 @@
         <v>5</v>
       </c>
       <c r="O6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S6" t="s">
+        <v>27</v>
+      </c>
+      <c r="T6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T6" s="2" t="s">
+      <c r="U6" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="V6" s="2"/>
       <c r="X6">
         <v>10</v>
       </c>
       <c r="Y6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Z6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AA6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB6">
         <v>2.2000000000000002</v>
@@ -1003,19 +1003,19 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7">
         <v>131</v>
       </c>
-      <c r="D7" t="b">
-        <v>1</v>
+      <c r="D7">
+        <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1027,36 +1027,36 @@
         <v>5</v>
       </c>
       <c r="O7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S7" t="s">
+        <v>27</v>
+      </c>
+      <c r="T7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T7" s="2" t="s">
+      <c r="U7" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="V7" s="2"/>
       <c r="X7">
         <v>16</v>
       </c>
       <c r="Y7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Z7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AA7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB7">
         <v>3.5</v>
@@ -1064,19 +1064,19 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8">
         <v>157</v>
       </c>
-      <c r="D8" t="b">
-        <v>1</v>
+      <c r="D8">
+        <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1088,36 +1088,36 @@
         <v>5</v>
       </c>
       <c r="O8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S8" t="s">
+        <v>27</v>
+      </c>
+      <c r="T8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T8" s="2" t="s">
+      <c r="U8" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="U8" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="V8" s="2"/>
       <c r="X8">
         <v>16</v>
       </c>
       <c r="Y8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Z8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA8" t="s">
         <v>31</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>32</v>
       </c>
       <c r="AB8">
         <v>3.5</v>
@@ -1125,19 +1125,19 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9">
         <v>190</v>
       </c>
-      <c r="D9" t="b">
-        <v>1</v>
+      <c r="D9">
+        <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1149,23 +1149,23 @@
         <v>5</v>
       </c>
       <c r="O9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S9" t="s">
+        <v>27</v>
+      </c>
+      <c r="T9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T9" s="2" t="s">
+      <c r="U9" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="U9" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="V9" s="2"/>
       <c r="W9">
@@ -1175,13 +1175,13 @@
         <v>30</v>
       </c>
       <c r="Y9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Z9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA9" t="s">
         <v>31</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>32</v>
       </c>
       <c r="AB9">
         <v>6.6</v>
@@ -1189,19 +1189,19 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10">
         <v>220</v>
       </c>
-      <c r="D10" t="b">
-        <v>1</v>
+      <c r="D10">
+        <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1213,23 +1213,23 @@
         <v>5</v>
       </c>
       <c r="O10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S10" t="s">
+        <v>27</v>
+      </c>
+      <c r="T10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T10" s="2" t="s">
+      <c r="U10" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="V10" s="2"/>
       <c r="W10">
@@ -1239,13 +1239,13 @@
         <v>40</v>
       </c>
       <c r="Y10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Z10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA10" t="s">
         <v>31</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>32</v>
       </c>
       <c r="AB10">
         <v>8.8000000000000007</v>
@@ -1253,19 +1253,19 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11">
         <v>252</v>
       </c>
-      <c r="D11" t="b">
-        <v>1</v>
+      <c r="D11">
+        <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1277,23 +1277,23 @@
         <v>5</v>
       </c>
       <c r="O11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S11" t="s">
+        <v>27</v>
+      </c>
+      <c r="T11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T11" s="2" t="s">
+      <c r="U11" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="U11" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="V11" s="2"/>
       <c r="W11">
@@ -1303,13 +1303,13 @@
         <v>50</v>
       </c>
       <c r="Y11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Z11" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA11" t="s">
         <v>31</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>32</v>
       </c>
       <c r="AB11">
         <v>11</v>
@@ -1317,19 +1317,19 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12">
         <v>283</v>
       </c>
-      <c r="D12" t="b">
-        <v>1</v>
+      <c r="D12">
+        <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1341,23 +1341,23 @@
         <v>5</v>
       </c>
       <c r="O12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S12" t="s">
+        <v>27</v>
+      </c>
+      <c r="T12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T12" s="2" t="s">
+      <c r="U12" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="U12" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="V12" s="2"/>
       <c r="W12">
@@ -1367,13 +1367,13 @@
         <v>60</v>
       </c>
       <c r="Y12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Z12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA12" t="s">
         <v>31</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>32</v>
       </c>
       <c r="AB12">
         <v>13.2</v>
@@ -1381,19 +1381,19 @@
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13">
         <v>315</v>
       </c>
-      <c r="D13" t="b">
-        <v>1</v>
+      <c r="D13">
+        <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1405,23 +1405,23 @@
         <v>5</v>
       </c>
       <c r="O13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S13" t="s">
+        <v>27</v>
+      </c>
+      <c r="T13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T13" s="2" t="s">
+      <c r="U13" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="U13" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="V13" s="2"/>
       <c r="W13">
@@ -1431,13 +1431,13 @@
         <v>80</v>
       </c>
       <c r="Y13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Z13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA13" t="s">
         <v>31</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>32</v>
       </c>
       <c r="AB13">
         <v>17.600000000000001</v>
@@ -1445,19 +1445,19 @@
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14">
         <v>421</v>
       </c>
-      <c r="D14" t="b">
-        <v>1</v>
+      <c r="D14">
+        <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1469,23 +1469,23 @@
         <v>5</v>
       </c>
       <c r="O14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S14" t="s">
+        <v>27</v>
+      </c>
+      <c r="T14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T14" s="2" t="s">
+      <c r="U14" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="U14" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="V14" s="2"/>
       <c r="W14">
@@ -1495,13 +1495,13 @@
         <v>80</v>
       </c>
       <c r="Y14" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z14" t="s">
         <v>65</v>
       </c>
-      <c r="Z14" t="s">
-        <v>66</v>
-      </c>
       <c r="AA14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB14">
         <v>17.600000000000001</v>
@@ -1509,19 +1509,19 @@
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15">
         <v>298</v>
       </c>
-      <c r="D15" t="b">
-        <v>1</v>
+      <c r="D15">
+        <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -1533,47 +1533,47 @@
         <v>5</v>
       </c>
       <c r="O15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P15" s="1"/>
       <c r="Q15" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S15" t="s">
+        <v>27</v>
+      </c>
+      <c r="T15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T15" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="U15" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V15" s="2"/>
       <c r="Y15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Z15" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA15" t="s">
         <v>31</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B16">
         <v>220</v>
       </c>
-      <c r="D16" t="b">
-        <v>1</v>
+      <c r="D16">
+        <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>5</v>
       </c>
       <c r="O16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W16">
         <v>32</v>
@@ -1593,16 +1593,16 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B17">
         <v>240</v>
       </c>
-      <c r="D17" t="b">
-        <v>1</v>
+      <c r="D17">
+        <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1614,7 +1614,7 @@
         <v>5</v>
       </c>
       <c r="O17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W17">
         <v>40</v>
@@ -1622,16 +1622,16 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B18">
         <v>320</v>
       </c>
-      <c r="D18" t="b">
-        <v>1</v>
+      <c r="D18">
+        <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1643,7 +1643,7 @@
         <v>5</v>
       </c>
       <c r="O18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W18">
         <v>40</v>
@@ -1672,16 +1672,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" t="s">
         <v>75</v>
-      </c>
-      <c r="C1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/src/WebMarket/WebMarket/App_Data/VoltageRelay.xlsx
+++ b/src/WebMarket/WebMarket/App_Data/VoltageRelay.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="VoltageRelay" sheetId="1" r:id="rId1"/>
@@ -203,9 +203,6 @@
     <t>IndicationError</t>
   </si>
   <si>
-    <t>Нижній рубіж відключення(крок 1В)=120-200 В&amp;Верхній рубіж відключення (крок 1В)=210-270 В%Час затримки включення (крок 5 с)=5-600 с</t>
-  </si>
-  <si>
     <t>не більше 1 с (120-200В) 0,02 с (&lt;120В)</t>
   </si>
   <si>
@@ -215,9 +212,6 @@
     <t>0,06 c</t>
   </si>
   <si>
-    <t>Нижній рубіж відключення(крок 1В)=120-200 В&amp;Верхній рубіж відключення (крок 1В)=210-270 В%Час затримки включення (крок 5 с)=5-600 с&amp;Асимметрия фаз (шаг 1В)=20-80 В (50В)&amp;Время отключения при асимметрии фаз=20 сек&amp;Максимальный ток на контактах реле=не более 10А&amp;Степень защиты прибора=IP 20</t>
-  </si>
-  <si>
     <t>VC-01-32</t>
   </si>
   <si>
@@ -246,6 +240,12 @@
   </si>
   <si>
     <t>Availability</t>
+  </si>
+  <si>
+    <t>Нижній рубіж відключення(крок 1В)=120-200 В&amp;Верхній рубіж відключення (крок 1В)=210-270 В&amp;Час затримки включення (крок 5 с)=5-600 с</t>
+  </si>
+  <si>
+    <t>Нижній рубіж відключення(крок 1В)=120-200 В&amp;Верхній рубіж відключення (крок 1В)=210-270 В&amp;Час затримки включення (крок 5 с)=5-600 с&amp;Асимметрия фаз (шаг 1В)=20-80 В (50В)&amp;Время отключения при асимметрии фаз=20 сек&amp;Максимальный ток на контактах реле=не более 10А&amp;Степень защиты прибора=IP 20</t>
   </si>
 </sst>
 </file>
@@ -596,18 +596,20 @@
   <dimension ref="A1:AB18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
     <col min="5" max="5" width="32" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" customWidth="1"/>
     <col min="15" max="15" width="20.140625" customWidth="1"/>
     <col min="16" max="16" width="8.7109375" customWidth="1"/>
-    <col min="17" max="17" width="42" customWidth="1"/>
-    <col min="25" max="25" width="9.7109375" customWidth="1"/>
+    <col min="17" max="17" width="146.28515625" customWidth="1"/>
+    <col min="19" max="19" width="17.85546875" customWidth="1"/>
+    <col min="20" max="20" width="18" customWidth="1"/>
+    <col min="25" max="25" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
@@ -621,7 +623,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -726,7 +728,7 @@
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>59</v>
@@ -745,7 +747,7 @@
         <v>6</v>
       </c>
       <c r="Y2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Z2" t="s">
         <v>30</v>
@@ -787,7 +789,7 @@
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>59</v>
@@ -806,7 +808,7 @@
         <v>10</v>
       </c>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Z3" t="s">
         <v>30</v>
@@ -829,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F4" t="s">
         <v>26</v>
@@ -848,7 +850,7 @@
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>59</v>
@@ -867,7 +869,7 @@
         <v>10</v>
       </c>
       <c r="Y4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Z4" t="s">
         <v>30</v>
@@ -890,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F5" t="s">
         <v>26</v>
@@ -909,7 +911,7 @@
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="R5" s="1" t="s">
         <v>59</v>
@@ -928,7 +930,7 @@
         <v>10</v>
       </c>
       <c r="Y5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Z5" t="s">
         <v>30</v>
@@ -970,7 +972,7 @@
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>59</v>
@@ -989,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="Y6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Z6" t="s">
         <v>30</v>
@@ -1031,7 +1033,7 @@
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>59</v>
@@ -1050,7 +1052,7 @@
         <v>16</v>
       </c>
       <c r="Y7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Z7" t="s">
         <v>30</v>
@@ -1092,7 +1094,7 @@
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>59</v>
@@ -1111,7 +1113,7 @@
         <v>16</v>
       </c>
       <c r="Y8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Z8" t="s">
         <v>30</v>
@@ -1153,7 +1155,7 @@
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>59</v>
@@ -1175,7 +1177,7 @@
         <v>30</v>
       </c>
       <c r="Y9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Z9" t="s">
         <v>30</v>
@@ -1217,7 +1219,7 @@
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="R10" s="1" t="s">
         <v>59</v>
@@ -1239,7 +1241,7 @@
         <v>40</v>
       </c>
       <c r="Y10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Z10" t="s">
         <v>30</v>
@@ -1281,7 +1283,7 @@
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>59</v>
@@ -1303,7 +1305,7 @@
         <v>50</v>
       </c>
       <c r="Y11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Z11" t="s">
         <v>30</v>
@@ -1345,7 +1347,7 @@
       </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>59</v>
@@ -1367,7 +1369,7 @@
         <v>60</v>
       </c>
       <c r="Y12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Z12" t="s">
         <v>30</v>
@@ -1409,7 +1411,7 @@
       </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="R13" s="1" t="s">
         <v>59</v>
@@ -1431,7 +1433,7 @@
         <v>80</v>
       </c>
       <c r="Y13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Z13" t="s">
         <v>30</v>
@@ -1473,7 +1475,7 @@
       </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="R14" s="1" t="s">
         <v>59</v>
@@ -1495,10 +1497,10 @@
         <v>80</v>
       </c>
       <c r="Y14" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z14" t="s">
         <v>64</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>65</v>
       </c>
       <c r="AA14" t="s">
         <v>31</v>
@@ -1537,7 +1539,7 @@
       </c>
       <c r="P15" s="1"/>
       <c r="Q15" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="R15" s="1" t="s">
         <v>60</v>
@@ -1553,7 +1555,7 @@
       </c>
       <c r="V15" s="2"/>
       <c r="Y15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Z15" t="s">
         <v>30</v>
@@ -1564,7 +1566,7 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B16">
         <v>220</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1593,7 +1595,7 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B17">
         <v>240</v>
@@ -1602,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1622,7 +1624,7 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B18">
         <v>320</v>
@@ -1631,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1675,13 +1677,13 @@
         <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" t="s">
         <v>73</v>
-      </c>
-      <c r="D1" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/src/WebMarket/WebMarket/App_Data/VoltageRelay.xlsx
+++ b/src/WebMarket/WebMarket/App_Data/VoltageRelay.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="76">
   <si>
     <t>Name</t>
   </si>
@@ -32,12 +32,6 @@
     <t>Producer</t>
   </si>
   <si>
-    <t>IsTopBuyed</t>
-  </si>
-  <si>
-    <t>IsNew</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -246,6 +240,9 @@
   </si>
   <si>
     <t>Нижній рубіж відключення(крок 1В)=120-200 В&amp;Верхній рубіж відключення (крок 1В)=210-270 В&amp;Час затримки включення (крок 5 с)=5-600 с&amp;Асимметрия фаз (шаг 1В)=20-80 В (50В)&amp;Время отключения при асимметрии фаз=20 сек&amp;Максимальный ток на контактах реле=не более 10А&amp;Степень защиты прибора=IP 20</t>
+  </si>
+  <si>
+    <t>DisplayClass</t>
   </si>
 </sst>
 </file>
@@ -593,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB18"/>
+  <dimension ref="A1:AA18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,15 +601,15 @@
     <col min="1" max="1" width="27.5703125" customWidth="1"/>
     <col min="5" max="5" width="32" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" customWidth="1"/>
-    <col min="15" max="15" width="20.140625" customWidth="1"/>
-    <col min="16" max="16" width="8.7109375" customWidth="1"/>
-    <col min="17" max="17" width="146.28515625" customWidth="1"/>
-    <col min="19" max="19" width="17.85546875" customWidth="1"/>
-    <col min="20" max="20" width="18" customWidth="1"/>
-    <col min="25" max="25" width="34.7109375" customWidth="1"/>
+    <col min="14" max="14" width="20.140625" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" customWidth="1"/>
+    <col min="16" max="16" width="146.28515625" customWidth="1"/>
+    <col min="18" max="18" width="17.85546875" customWidth="1"/>
+    <col min="19" max="19" width="18" customWidth="1"/>
+    <col min="24" max="24" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -623,7 +620,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -632,75 +629,72 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>15</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V1" t="s">
         <v>16</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>17</v>
       </c>
-      <c r="V1" t="s">
-        <v>61</v>
-      </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>18</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" t="s">
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>22</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>24</v>
       </c>
       <c r="B2">
         <v>95</v>
@@ -709,59 +703,59 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>12</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="R2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" t="s">
+      <c r="S2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>12</v>
-      </c>
-      <c r="K2">
-        <v>5</v>
-      </c>
-      <c r="O2" t="s">
-        <v>56</v>
-      </c>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="T2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2"/>
+      <c r="W2">
+        <v>6</v>
+      </c>
+      <c r="X2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y2" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="Z2" t="s">
         <v>29</v>
       </c>
-      <c r="V2" s="2"/>
-      <c r="X2">
-        <v>6</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z2" t="s">
+      <c r="AA2">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>30</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB2">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>32</v>
       </c>
       <c r="B3">
         <v>103</v>
@@ -770,59 +764,59 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>12</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="R3" t="s">
         <v>25</v>
       </c>
-      <c r="F3" t="s">
+      <c r="S3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>12</v>
-      </c>
-      <c r="K3">
-        <v>5</v>
-      </c>
-      <c r="O3" t="s">
-        <v>56</v>
-      </c>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="S3" t="s">
+      <c r="T3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2"/>
+      <c r="W3">
+        <v>10</v>
+      </c>
+      <c r="X3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y3" t="s">
         <v>28</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="Z3" t="s">
         <v>29</v>
       </c>
-      <c r="V3" s="2"/>
-      <c r="X3">
-        <v>10</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA3" t="s">
+      <c r="AA3">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>31</v>
-      </c>
-      <c r="AB3">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>33</v>
       </c>
       <c r="B4">
         <v>118</v>
@@ -831,59 +825,59 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>12</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="R4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>12</v>
-      </c>
-      <c r="K4">
-        <v>5</v>
-      </c>
-      <c r="O4" t="s">
-        <v>56</v>
-      </c>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="S4" t="s">
+      <c r="T4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="U4" s="2"/>
+      <c r="W4">
+        <v>10</v>
+      </c>
+      <c r="X4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y4" t="s">
         <v>28</v>
       </c>
-      <c r="U4" s="2" t="s">
+      <c r="Z4" t="s">
         <v>29</v>
       </c>
-      <c r="V4" s="2"/>
-      <c r="X4">
-        <v>10</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB4">
+      <c r="AA4">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5">
         <v>190</v>
@@ -892,59 +886,59 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>12</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="R5" t="s">
+        <v>25</v>
+      </c>
+      <c r="S5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>12</v>
-      </c>
-      <c r="K5">
-        <v>5</v>
-      </c>
-      <c r="O5" t="s">
-        <v>56</v>
-      </c>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="S5" t="s">
+      <c r="T5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="T5" s="2" t="s">
+      <c r="U5" s="2"/>
+      <c r="W5">
+        <v>10</v>
+      </c>
+      <c r="X5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y5" t="s">
         <v>28</v>
       </c>
-      <c r="U5" s="2" t="s">
+      <c r="Z5" t="s">
         <v>29</v>
       </c>
-      <c r="V5" s="2"/>
-      <c r="X5">
-        <v>10</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB5">
+      <c r="AA5">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B6">
         <v>117</v>
@@ -953,59 +947,59 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>12</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>54</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="R6" t="s">
+        <v>25</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U6" s="2"/>
+      <c r="W6">
+        <v>10</v>
+      </c>
+      <c r="X6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA6">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>36</v>
-      </c>
-      <c r="F6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>12</v>
-      </c>
-      <c r="K6">
-        <v>5</v>
-      </c>
-      <c r="O6" t="s">
-        <v>56</v>
-      </c>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="S6" t="s">
-        <v>27</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V6" s="2"/>
-      <c r="X6">
-        <v>10</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB6">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>38</v>
       </c>
       <c r="B7">
         <v>131</v>
@@ -1014,59 +1008,59 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>12</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>54</v>
+      </c>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="R7" t="s">
+        <v>25</v>
+      </c>
+      <c r="S7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>12</v>
-      </c>
-      <c r="K7">
-        <v>5</v>
-      </c>
-      <c r="O7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="S7" t="s">
+      <c r="T7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="T7" s="2" t="s">
+      <c r="U7" s="2"/>
+      <c r="W7">
+        <v>16</v>
+      </c>
+      <c r="X7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y7" t="s">
         <v>28</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V7" s="2"/>
-      <c r="X7">
-        <v>16</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>62</v>
-      </c>
       <c r="Z7" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA7">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>37</v>
-      </c>
-      <c r="AB7">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>39</v>
       </c>
       <c r="B8">
         <v>157</v>
@@ -1075,59 +1069,59 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>12</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>54</v>
+      </c>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="R8" t="s">
+        <v>25</v>
+      </c>
+      <c r="S8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>12</v>
-      </c>
-      <c r="K8">
-        <v>5</v>
-      </c>
-      <c r="O8" t="s">
-        <v>56</v>
-      </c>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="S8" t="s">
+      <c r="T8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="T8" s="2" t="s">
+      <c r="U8" s="2"/>
+      <c r="W8">
+        <v>16</v>
+      </c>
+      <c r="X8" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y8" t="s">
         <v>28</v>
       </c>
-      <c r="U8" s="2" t="s">
+      <c r="Z8" t="s">
         <v>29</v>
       </c>
-      <c r="V8" s="2"/>
-      <c r="X8">
-        <v>16</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB8">
+      <c r="AA8">
         <v>3.5</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B9">
         <v>190</v>
@@ -1136,62 +1130,62 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>12</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>54</v>
+      </c>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="R9" t="s">
+        <v>25</v>
+      </c>
+      <c r="S9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>12</v>
-      </c>
-      <c r="K9">
-        <v>5</v>
-      </c>
-      <c r="O9" t="s">
-        <v>56</v>
-      </c>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="S9" t="s">
+      <c r="T9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="T9" s="2" t="s">
+      <c r="U9" s="2"/>
+      <c r="V9">
+        <v>20</v>
+      </c>
+      <c r="W9">
+        <v>30</v>
+      </c>
+      <c r="X9" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y9" t="s">
         <v>28</v>
       </c>
-      <c r="U9" s="2" t="s">
+      <c r="Z9" t="s">
         <v>29</v>
       </c>
-      <c r="V9" s="2"/>
-      <c r="W9">
-        <v>20</v>
-      </c>
-      <c r="X9">
-        <v>30</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB9">
+      <c r="AA9">
         <v>6.6</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B10">
         <v>220</v>
@@ -1200,62 +1194,62 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>12</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="R10" t="s">
+        <v>25</v>
+      </c>
+      <c r="S10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>12</v>
-      </c>
-      <c r="K10">
-        <v>5</v>
-      </c>
-      <c r="O10" t="s">
-        <v>56</v>
-      </c>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="S10" t="s">
+      <c r="T10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="T10" s="2" t="s">
+      <c r="U10" s="2"/>
+      <c r="V10">
+        <v>32</v>
+      </c>
+      <c r="W10">
+        <v>40</v>
+      </c>
+      <c r="X10" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y10" t="s">
         <v>28</v>
       </c>
-      <c r="U10" s="2" t="s">
+      <c r="Z10" t="s">
         <v>29</v>
       </c>
-      <c r="V10" s="2"/>
-      <c r="W10">
-        <v>32</v>
-      </c>
-      <c r="X10">
-        <v>40</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB10">
+      <c r="AA10">
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B11">
         <v>252</v>
@@ -1264,62 +1258,62 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>12</v>
+      </c>
+      <c r="J11">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>54</v>
+      </c>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="R11" t="s">
+        <v>25</v>
+      </c>
+      <c r="S11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>12</v>
-      </c>
-      <c r="K11">
-        <v>5</v>
-      </c>
-      <c r="O11" t="s">
-        <v>56</v>
-      </c>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="S11" t="s">
+      <c r="T11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="T11" s="2" t="s">
+      <c r="U11" s="2"/>
+      <c r="V11">
+        <v>40</v>
+      </c>
+      <c r="W11">
+        <v>50</v>
+      </c>
+      <c r="X11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y11" t="s">
         <v>28</v>
       </c>
-      <c r="U11" s="2" t="s">
+      <c r="Z11" t="s">
         <v>29</v>
       </c>
-      <c r="V11" s="2"/>
-      <c r="W11">
-        <v>40</v>
-      </c>
-      <c r="X11">
-        <v>50</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB11">
+      <c r="AA11">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B12">
         <v>283</v>
@@ -1328,62 +1322,62 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>12</v>
+      </c>
+      <c r="J12">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>54</v>
+      </c>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="R12" t="s">
+        <v>25</v>
+      </c>
+      <c r="S12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>12</v>
-      </c>
-      <c r="K12">
-        <v>5</v>
-      </c>
-      <c r="O12" t="s">
-        <v>56</v>
-      </c>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="S12" t="s">
+      <c r="T12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="T12" s="2" t="s">
+      <c r="U12" s="2"/>
+      <c r="V12">
+        <v>50</v>
+      </c>
+      <c r="W12">
+        <v>60</v>
+      </c>
+      <c r="X12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y12" t="s">
         <v>28</v>
       </c>
-      <c r="U12" s="2" t="s">
+      <c r="Z12" t="s">
         <v>29</v>
       </c>
-      <c r="V12" s="2"/>
-      <c r="W12">
-        <v>50</v>
-      </c>
-      <c r="X12">
-        <v>60</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB12">
+      <c r="AA12">
         <v>13.2</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B13">
         <v>315</v>
@@ -1392,62 +1386,62 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>12</v>
+      </c>
+      <c r="J13">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>54</v>
+      </c>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="R13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>12</v>
-      </c>
-      <c r="K13">
-        <v>5</v>
-      </c>
-      <c r="O13" t="s">
-        <v>56</v>
-      </c>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="S13" t="s">
+      <c r="T13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="T13" s="2" t="s">
+      <c r="U13" s="2"/>
+      <c r="V13">
+        <v>63</v>
+      </c>
+      <c r="W13">
+        <v>80</v>
+      </c>
+      <c r="X13" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y13" t="s">
         <v>28</v>
       </c>
-      <c r="U13" s="2" t="s">
+      <c r="Z13" t="s">
         <v>29</v>
       </c>
-      <c r="V13" s="2"/>
-      <c r="W13">
-        <v>63</v>
-      </c>
-      <c r="X13">
-        <v>80</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB13">
+      <c r="AA13">
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B14">
         <v>421</v>
@@ -1456,62 +1450,62 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>12</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>54</v>
+      </c>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="R14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>12</v>
-      </c>
-      <c r="K14">
-        <v>5</v>
-      </c>
-      <c r="O14" t="s">
-        <v>56</v>
-      </c>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="S14" t="s">
+      <c r="T14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="T14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="U14" s="2" t="s">
+      <c r="U14" s="2"/>
+      <c r="V14">
+        <v>63</v>
+      </c>
+      <c r="W14">
+        <v>80</v>
+      </c>
+      <c r="X14" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z14" t="s">
         <v>29</v>
       </c>
-      <c r="V14" s="2"/>
-      <c r="W14">
-        <v>63</v>
-      </c>
-      <c r="X14">
-        <v>80</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB14">
+      <c r="AA14">
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B15">
         <v>298</v>
@@ -1520,53 +1514,53 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>12</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
         <v>54</v>
       </c>
-      <c r="F15" t="s">
+      <c r="O15" s="1"/>
+      <c r="P15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>12</v>
-      </c>
-      <c r="K15">
-        <v>5</v>
-      </c>
-      <c r="O15" t="s">
-        <v>56</v>
-      </c>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="R15" s="1" t="s">
+      <c r="T15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="U15" s="2"/>
+      <c r="X15" t="s">
         <v>60</v>
       </c>
-      <c r="S15" t="s">
-        <v>27</v>
-      </c>
-      <c r="T15" s="2" t="s">
+      <c r="Y15" t="s">
         <v>28</v>
       </c>
-      <c r="U15" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="V15" s="2"/>
-      <c r="Y15" t="s">
-        <v>62</v>
-      </c>
       <c r="Z15" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B16">
         <v>220</v>
@@ -1575,27 +1569,27 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>66</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J16">
-        <v>60</v>
-      </c>
-      <c r="K16">
-        <v>5</v>
-      </c>
-      <c r="O16" t="s">
-        <v>56</v>
-      </c>
-      <c r="W16">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>54</v>
+      </c>
+      <c r="V16">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B17">
         <v>240</v>
@@ -1604,27 +1598,27 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>68</v>
+        <v>66</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J17">
-        <v>60</v>
-      </c>
-      <c r="K17">
-        <v>5</v>
-      </c>
-      <c r="O17" t="s">
-        <v>56</v>
-      </c>
-      <c r="W17">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>54</v>
+      </c>
+      <c r="V17">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B18">
         <v>320</v>
@@ -1633,21 +1627,21 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>68</v>
+        <v>66</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J18">
-        <v>60</v>
-      </c>
-      <c r="K18">
-        <v>5</v>
-      </c>
-      <c r="O18" t="s">
-        <v>56</v>
-      </c>
-      <c r="W18">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>54</v>
+      </c>
+      <c r="V18">
         <v>40</v>
       </c>
     </row>
@@ -1674,16 +1668,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" t="s">
         <v>71</v>
-      </c>
-      <c r="D1" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
